--- a/AttendanceManagement/wwwroot/ExcelTemplates/Designation Master.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Designation Master.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48462DB-4D89-4276-ABEA-177F53BD8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2015CF18-0E20-4FC2-9AC3-3695C0BF7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>ShortName</t>
+  </si>
+  <si>
+    <t>IsActive</t>
   </si>
 </sst>
 </file>
@@ -428,6 +431,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="F2" s="1"/>
